--- a/FYP/bin/Debug/Menu/7Sunday/test.xlsx
+++ b/FYP/bin/Debug/Menu/7Sunday/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11976"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10824" windowHeight="6744"/>
   </bookViews>
   <sheets>
     <sheet name="MenuFood" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>menuId</t>
   </si>
@@ -82,6 +82,12 @@
     <t>反</t>
   </si>
   <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>image/M00000002.jpg</t>
+  </si>
+  <si>
     <t>M00000003</t>
   </si>
   <si>
@@ -100,7 +106,7 @@
     <t>M00000004</t>
   </si>
   <si>
-    <t>雙餸燒味飯(Siu Mei Rice with two choices of sides)</t>
+    <t>雙餸燒味飯(siu mei rice with two choices of sides)</t>
   </si>
   <si>
     <t>雙燒味飯</t>
@@ -115,12 +121,51 @@
     <t>M00000005</t>
   </si>
   <si>
-    <t>雙餸燒味飯套餐(Set of Siu Mei Rice with two choices of sides)</t>
+    <t>雙餸燒味飯套餐(Set of siu mei rice with two choices of sides)</t>
   </si>
   <si>
     <t>雙燒味飯(餐)</t>
   </si>
   <si>
+    <t>M00000006</t>
+  </si>
+  <si>
+    <t>abc set</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>M00000007</t>
+  </si>
+  <si>
+    <t>abcd set</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>M00000008</t>
+  </si>
+  <si>
+    <t>post set</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>M00000009</t>
+  </si>
+  <si>
+    <t>123 set</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>fTypeId</t>
   </si>
   <si>
@@ -136,10 +181,10 @@
     <t>FT00000001</t>
   </si>
   <si>
+    <t>FT00000004</t>
+  </si>
+  <si>
     <t>FT00000005</t>
-  </si>
-  <si>
-    <t>FT00000004</t>
   </si>
 </sst>
 </file>
@@ -484,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -511,10 +556,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -522,76 +567,87 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -603,17 +659,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -675,10 +731,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -689,22 +745,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -712,22 +768,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
@@ -735,24 +791,116 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
